--- a/Second Iteration Data/data_gathered_part_first_segmentation_7.xlsx
+++ b/Second Iteration Data/data_gathered_part_first_segmentation_7.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Passion\Machine Learning\Projects\Semantic_Web_Parser\Second Iteration Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3463873F-0AC0-4D21-88E3-907E5BF02210}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="1620" yWindow="4800" windowWidth="9600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>tag_h</t>
   </si>
@@ -96,28 +101,40 @@
   </si>
   <si>
     <t>fb-root</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,26 +149,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,20 +474,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="M15" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,30 +532,33 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1034</v>
       </c>
-      <c r="G2" t="n">
-        <v>7.54204691153179e-05</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>7.54204691153179E-5</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -530,48 +567,51 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="n">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -580,48 +620,51 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>1266.400024414062</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="n">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>93</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.002309468822170901</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>2.3094688221709011E-3</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -630,48 +673,51 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="n">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>714</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.001115075825156111</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>1.1150758251561111E-3</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -680,48 +726,51 @@
       <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="n">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>3.7037037037037028E-2</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
@@ -730,48 +779,51 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>2127.699951171875</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>1266.400024414062</v>
       </c>
-      <c r="O6" t="n">
-        <v>3.043049076123112</v>
+      <c r="O6">
+        <v>3.0430490761231122</v>
       </c>
       <c r="P6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="n">
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -780,48 +832,51 @@
       <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>2128</v>
       </c>
-      <c r="M7" t="n">
-        <v>89.40000915527344</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7">
+        <v>89.400009155273438</v>
+      </c>
+      <c r="N7">
         <v>1266.400024414062</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.1278604227609801</v>
+      <c r="O7">
+        <v>0.12786042276098011</v>
       </c>
       <c r="P7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="n">
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -830,48 +885,51 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="n">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -880,48 +938,51 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>2128</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>1266.400024414062</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="n">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -930,48 +991,51 @@
       <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="n">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
@@ -980,48 +1044,51 @@
       <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>53</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>1266.400024414062</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="n">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G12">
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
@@ -1030,48 +1097,51 @@
       <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="n">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>2.4390243902439029E-2</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
@@ -1080,48 +1150,51 @@
       <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="n">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>4698</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.257640163996277e-05</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>1.257640163996277E-5</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
@@ -1130,48 +1203,51 @@
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="n">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>9539</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.062266419680868e-06</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G15">
+        <v>4.0622664196808683E-6</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
@@ -1180,48 +1256,51 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="n">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>302</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.0006079027355623101</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>6.0790273556231007E-4</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
@@ -1230,48 +1309,51 @@
       <c r="J16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
@@ -1280,48 +1362,51 @@
       <c r="J17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>2128</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>1266.400024414062</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1" t="n">
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
@@ -1330,26 +1415,30 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
         <v>16</v>
       </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>